--- a/day6-ajaxendtoend/Endtoendassignment.xlsx
+++ b/day6-ajaxendtoend/Endtoendassignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2021\mean\day6-ajaxendtoend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9455443-FA1D-4612-9D35-53A5ACACB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA313F0B-2D79-424B-92BF-A0095B3E8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openweatherapi" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Open Weather API</t>
   </si>
@@ -140,13 +140,19 @@
   </si>
   <si>
     <t>&lt;Upate User&gt;</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>&lt;search&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +190,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -220,6 +232,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ECEF13-1C1A-4A29-ADEF-F716D1B30233}">
   <dimension ref="C1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -677,6 +694,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>22</v>
@@ -740,5 +768,6 @@
     <hyperlink ref="E15" r:id="rId2" xr:uid="{7AE97CE6-A49A-44C0-B101-6D5CF3FA239C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>